--- a/LDMP/data/summary_table_ldn_sdg.xlsx
+++ b/LDMP/data/summary_table_ldn_sdg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LandDegradation\trends.earth\LDMP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azvol\Code\LandDegradation\trends.earth\LDMP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEF815B-ED7B-4D59-91DF-B442A915B5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E2F0AD-AFD8-4552-9AFA-7F8779FA6668}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDG 15.3.1" sheetId="5" r:id="rId1"/>
@@ -19,17 +19,7 @@
     <sheet name="Land cover" sheetId="8" r:id="rId4"/>
     <sheet name="UNCCD Reporting" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -802,7 +792,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,6 +887,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1019,29 +1012,29 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1055,12 +1048,6 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1089,13 +1076,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1156,10 +1136,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1492,18 +1478,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="42"/>
-    <col min="2" max="2" width="14.5703125" style="42" customWidth="1"/>
-    <col min="3" max="5" width="15.5703125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="43" customWidth="1"/>
-    <col min="7" max="9" width="15.5703125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="44" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="9.1796875" style="43"/>
+    <col min="2" max="2" width="14.54296875" style="43" customWidth="1"/>
+    <col min="3" max="5" width="15.54296875" style="44" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="44" customWidth="1"/>
+    <col min="7" max="9" width="15.54296875" style="44" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>44</v>
       </c>
@@ -1517,119 +1503,119 @@
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-    </row>
-    <row r="4" spans="1:10" s="48" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="55" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="A4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="53"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="E5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="54">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="59" t="e">
+      <c r="G5" s="60" t="e">
         <f>SUM(G6:G9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="E6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76" t="e">
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="e">
         <f>F6/$F$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="49"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="E7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="29" t="e">
         <f t="shared" ref="G7:G9" si="0">F7/$F$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="49"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H7" s="50"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="E8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80" t="e">
+      <c r="F8" s="80"/>
+      <c r="G8" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="49"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="E9" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78" t="e">
+      <c r="F9" s="78"/>
+      <c r="G9" s="79" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:10" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+    <row r="11" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="42" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1647,170 +1633,170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="42" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="42" customWidth="1"/>
-    <col min="3" max="9" width="15.5703125" style="43" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="44" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="8.7265625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="43" customWidth="1"/>
+    <col min="3" max="9" width="15.54296875" style="44" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="74" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="75" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+    <row r="3" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-    </row>
-    <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="E5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="54">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="59" t="e">
+      <c r="G5" s="60" t="e">
         <f>SUM(G6:G9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="E6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76" t="e">
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="e">
         <f>F6/$F$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="E7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="29" t="e">
         <f t="shared" ref="G7:G9" si="0">F7/$F$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="E8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80" t="e">
+      <c r="F8" s="80"/>
+      <c r="G8" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="E9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78" t="e">
+      <c r="F9" s="78"/>
+      <c r="G9" s="79" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="73"/>
-    </row>
-    <row r="11" spans="1:10" s="74" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74"/>
+    </row>
+    <row r="11" spans="1:10" s="75" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-    </row>
-    <row r="12" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+    </row>
+    <row r="12" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="88" t="s">
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="C15" s="136" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -1831,15 +1817,15 @@
       <c r="I15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="133" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="23"/>
@@ -1854,8 +1840,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
+    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="88"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1871,8 +1857,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
+    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="88"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1888,8 +1874,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="88"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1905,8 +1891,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="88"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1922,8 +1908,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="88"/>
       <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
@@ -1939,8 +1925,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="88"/>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1956,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>10</v>
@@ -1994,34 +1980,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="114" t="s">
+    <row r="25" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="93"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="87" t="s">
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+    </row>
+    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="C27" s="135" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2042,15 +2028,15 @@
       <c r="I27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="91" t="s">
+    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="133" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="23"/>
@@ -2065,8 +2051,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
+    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="88"/>
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -2082,8 +2068,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
+    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="88"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2099,8 +2085,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
+    <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="88"/>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
@@ -2116,8 +2102,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
+    <row r="32" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="88"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2133,8 +2119,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="92"/>
+    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="88"/>
       <c r="B33" s="2" t="s">
         <v>71</v>
       </c>
@@ -2150,8 +2136,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
+    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="88"/>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2167,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
         <v>10</v>
@@ -2205,34 +2191,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="94" t="s">
+    <row r="37" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="97"/>
-    </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="96"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="98"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1"/>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-    </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="87" t="s">
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+    </row>
+    <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="C39" s="135" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2253,15 +2239,15 @@
       <c r="I39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="44" t="s">
+      <c r="J39" s="45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="91" t="s">
+    <row r="40" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="133" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="23"/>
@@ -2276,8 +2262,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="92"/>
+    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="88"/>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
@@ -2293,8 +2279,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="92"/>
+    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="88"/>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
@@ -2310,8 +2296,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="92"/>
+    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="88"/>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2327,8 +2313,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
+    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="88"/>
       <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
@@ -2344,8 +2330,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="92"/>
+    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="88"/>
       <c r="B45" s="2" t="s">
         <v>71</v>
       </c>
@@ -2361,8 +2347,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="92"/>
+    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="88"/>
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
@@ -2378,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="6" t="s">
         <v>10</v>
@@ -2416,34 +2402,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="100" t="s">
+    <row r="49" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="102"/>
-      <c r="J49" s="103"/>
-    </row>
-    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="100"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="102"/>
+    </row>
+    <row r="50" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1"/>
-      <c r="C50" s="98" t="s">
+      <c r="C50" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-    </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C51" s="87" t="s">
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+    </row>
+    <row r="51" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="C51" s="135" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -2464,15 +2450,15 @@
       <c r="I51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J51" s="44" t="s">
+      <c r="J51" s="45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="91" t="s">
+    <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="133" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="23"/>
@@ -2487,8 +2473,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="92"/>
+    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="88"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -2504,8 +2490,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="92"/>
+    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="88"/>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
@@ -2521,8 +2507,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="92"/>
+    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="88"/>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2538,8 +2524,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="92"/>
+    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="88"/>
       <c r="B56" s="2" t="s">
         <v>8</v>
       </c>
@@ -2555,8 +2541,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="92"/>
+    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="88"/>
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
@@ -2572,8 +2558,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="92"/>
+    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="88"/>
       <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
@@ -2589,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
       <c r="B59" s="6" t="s">
         <v>10</v>
@@ -2627,35 +2613,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="104" t="s">
+    <row r="61" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="105"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
-      <c r="I61" s="106"/>
-      <c r="J61" s="107"/>
-    </row>
-    <row r="62" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="104"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="106"/>
+    </row>
+    <row r="62" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1"/>
-      <c r="C62" s="98" t="s">
+      <c r="C62" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="73"/>
-    </row>
-    <row r="63" spans="1:10" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C63" s="87" t="s">
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="74"/>
+    </row>
+    <row r="63" spans="1:10" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="C63" s="135" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -2676,15 +2662,15 @@
       <c r="I63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="73" t="s">
+      <c r="J63" s="74" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="91" t="s">
+    <row r="64" spans="1:10" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="85" t="s">
+      <c r="B64" s="133" t="s">
         <v>27</v>
       </c>
       <c r="C64" s="23"/>
@@ -2699,8 +2685,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="92"/>
+    <row r="65" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="88"/>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
@@ -2716,8 +2702,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="92"/>
+    <row r="66" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="88"/>
       <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
@@ -2733,8 +2719,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="92"/>
+    <row r="67" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="88"/>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
@@ -2750,8 +2736,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="92"/>
+    <row r="68" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="88"/>
       <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
@@ -2767,8 +2753,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="92"/>
+    <row r="69" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="88"/>
       <c r="B69" s="2" t="s">
         <v>71</v>
       </c>
@@ -2784,8 +2770,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="92"/>
+    <row r="70" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="88"/>
       <c r="B70" s="2" t="s">
         <v>9</v>
       </c>
@@ -2801,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
       <c r="B71" s="6" t="s">
         <v>10</v>
@@ -2839,45 +2825,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
-      <c r="I72" s="72"/>
-      <c r="J72" s="73"/>
-    </row>
-    <row r="73" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="108" t="s">
+    <row r="72" spans="1:10" s="75" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C72" s="73"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73"/>
+      <c r="J72" s="74"/>
+    </row>
+    <row r="73" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="109"/>
-      <c r="C73" s="110"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="110"/>
-      <c r="F73" s="110"/>
-      <c r="G73" s="110"/>
-      <c r="H73" s="110"/>
-      <c r="I73" s="110"/>
-      <c r="J73" s="111"/>
-    </row>
-    <row r="74" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="108"/>
+      <c r="C73" s="109"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="109"/>
+      <c r="F73" s="109"/>
+      <c r="G73" s="109"/>
+      <c r="H73" s="109"/>
+      <c r="I73" s="109"/>
+      <c r="J73" s="110"/>
+    </row>
+    <row r="74" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1"/>
-      <c r="C74" s="98" t="s">
+      <c r="C74" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="73"/>
-    </row>
-    <row r="75" spans="1:10" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="C75" s="87" t="s">
+      <c r="D74" s="91"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="74"/>
+    </row>
+    <row r="75" spans="1:10" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="C75" s="135" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -2898,15 +2884,15 @@
       <c r="I75" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J75" s="73" t="s">
+      <c r="J75" s="74" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="91" t="s">
+    <row r="76" spans="1:10" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A76" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="85" t="s">
+      <c r="B76" s="133" t="s">
         <v>27</v>
       </c>
       <c r="C76" s="23"/>
@@ -2921,8 +2907,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="92"/>
+    <row r="77" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="88"/>
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
@@ -2938,8 +2924,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="92"/>
+    <row r="78" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="88"/>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2955,8 +2941,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="92"/>
+    <row r="79" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="88"/>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
@@ -2972,8 +2958,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="92"/>
+    <row r="80" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="88"/>
       <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
@@ -2989,8 +2975,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="92"/>
+    <row r="81" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="88"/>
       <c r="B81" s="2" t="s">
         <v>71</v>
       </c>
@@ -3006,8 +2992,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="92"/>
+    <row r="82" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="88"/>
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
@@ -3023,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
       <c r="B83" s="6" t="s">
         <v>10</v>
@@ -3061,44 +3047,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="72"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="73"/>
-    </row>
-    <row r="85" spans="1:10" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="90" t="s">
+    <row r="84" spans="1:10" s="75" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C84" s="73"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="74"/>
+    </row>
+    <row r="85" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="93"/>
-      <c r="E85" s="93"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="93"/>
-      <c r="H85" s="93"/>
-      <c r="I85" s="93"/>
-      <c r="J85" s="93"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="41" t="s">
+      <c r="B85" s="94"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="94"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="94"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="94"/>
+      <c r="J85" s="94"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87" s="42" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A52:A58"/>
     <mergeCell ref="A85:J85"/>
     <mergeCell ref="A28:A34"/>
@@ -3113,6 +3092,13 @@
     <mergeCell ref="A73:J73"/>
     <mergeCell ref="C74:I74"/>
     <mergeCell ref="A76:A82"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3125,132 +3111,132 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="42"/>
-    <col min="2" max="2" width="14.5703125" style="42" customWidth="1"/>
-    <col min="3" max="10" width="15.5703125" style="42" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="9.1796875" style="43"/>
+    <col min="2" max="2" width="14.54296875" style="43" customWidth="1"/>
+    <col min="3" max="10" width="15.54296875" style="43" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-    </row>
-    <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="54">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="59" t="e">
+      <c r="G5" s="60" t="e">
         <f>SUM(G6:G9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76" t="e">
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="e">
         <f>F6/$F$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="29" t="e">
         <f t="shared" ref="G7:G9" si="0">F7/$F$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80" t="e">
+      <c r="F8" s="80"/>
+      <c r="G8" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78" t="e">
+      <c r="F9" s="78"/>
+      <c r="G9" s="79" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="F11" s="27" t="s">
         <v>57</v>
@@ -3260,27 +3246,27 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="117" t="s">
+    <row r="13" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="17" t="s">
         <v>72</v>
       </c>
@@ -3306,9 +3292,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
-      <c r="B16" s="85" t="s">
+    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="115"/>
+      <c r="B16" s="133" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="26"/>
@@ -3332,8 +3318,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
+    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="88"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3358,8 +3344,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
+    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="88"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -3384,8 +3370,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="88"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -3410,8 +3396,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="88"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3436,8 +3422,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="88"/>
       <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
@@ -3462,7 +3448,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="C22" s="25"/>
       <c r="D22" s="6" t="s">
@@ -3489,35 +3475,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="120" t="s">
+    <row r="24" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-    </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="38" t="s">
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+    </row>
+    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="C26" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -3536,132 +3522,132 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="91" t="s">
+    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-    </row>
-    <row r="28" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+    </row>
+    <row r="28" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="88"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-    </row>
-    <row r="29" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+    </row>
+    <row r="29" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="88"/>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-    </row>
-    <row r="30" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+    </row>
+    <row r="30" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="88"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-    </row>
-    <row r="31" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+    </row>
+    <row r="31" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="88"/>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-    </row>
-    <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+    </row>
+    <row r="32" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="88"/>
       <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-    </row>
-    <row r="33" spans="1:10" s="46" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+    </row>
+    <row r="33" spans="1:10" s="47" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-    </row>
-    <row r="34" spans="1:10" s="46" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="115" t="s">
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+    </row>
+    <row r="34" spans="1:10" s="47" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-    </row>
-    <row r="36" spans="1:10" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90" t="s">
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+    </row>
+    <row r="36" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3685,148 +3671,148 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="42" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="42" customWidth="1"/>
-    <col min="3" max="9" width="15.5703125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="44" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="8.7265625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="43" customWidth="1"/>
+    <col min="3" max="9" width="15.54296875" style="43" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
+    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="122"/>
-    </row>
-    <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="118"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
       <c r="A4" s="4"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="54">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="59" t="e">
+      <c r="G5" s="60" t="e">
         <f>SUM(G6:G9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76" t="e">
+      <c r="F6" s="76"/>
+      <c r="G6" s="77" t="e">
         <f>F6/$F$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="29" t="e">
         <f t="shared" ref="G7:G9" si="0">F7/$F$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80" t="e">
+      <c r="F8" s="80"/>
+      <c r="G8" s="81" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78" t="e">
+      <c r="F9" s="78"/>
+      <c r="G9" s="79" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="123" t="s">
+      <c r="J10" s="43"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
@@ -3840,9 +3826,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
-      <c r="B14" s="85" t="s">
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="115"/>
+      <c r="B14" s="133" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="23">
@@ -3862,8 +3848,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="88"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3884,8 +3870,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
+    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="88"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3906,8 +3892,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
+    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="88"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3928,8 +3914,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
+    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="88"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3950,8 +3936,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
+    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="88"/>
       <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
@@ -3972,8 +3958,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
+    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="88"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -3994,7 +3980,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
         <v>10</v>
@@ -4013,40 +3999,40 @@
       </c>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="126" t="s">
+    <row r="23" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="122"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="118"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="86" t="s">
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+    </row>
+    <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="C25" s="134" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -4067,15 +4053,15 @@
       <c r="I25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="44" t="s">
+      <c r="J25" s="45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="133" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="23"/>
@@ -4090,8 +4076,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
+    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="88"/>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
@@ -4107,8 +4093,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
+    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="88"/>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
@@ -4124,8 +4110,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
+    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="88"/>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
@@ -4141,8 +4127,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
+    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="88"/>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
@@ -4158,8 +4144,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
+    <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="88"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
@@ -4175,8 +4161,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
+    <row r="32" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="88"/>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
@@ -4192,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="46" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="47" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -4230,31 +4216,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
+    <row r="35" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="41" t="s">
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4273,18 +4259,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="66" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="67" customWidth="1"/>
+    <col min="3" max="9" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
@@ -4295,556 +4281,476 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34"/>
-      <c r="B2" s="67"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="132" t="s">
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="40"/>
+      <c r="B3" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+    </row>
+    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16" t="str">
-        <f>IF(ISBLANK(B38),"",B38)</f>
+        <f>IF(ISBLANK(B24),"",B24)</f>
         <v/>
       </c>
-      <c r="C5" s="82" t="str">
-        <f>IF(ISBLANK(B38),"",SUM(C38:H38))</f>
+      <c r="C5" s="83" t="str">
+        <f>IF(ISBLANK(B24),"",SUM(C24:H24))</f>
         <v/>
       </c>
-      <c r="D5" s="82"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="23" t="str">
-        <f>IF(ISBLANK(B38),"",SUM(C5:D5))</f>
+        <f>IF(ISBLANK(B24),"",SUM(C5:D5))</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="str">
-        <f t="shared" ref="B6:B34" si="0">IF(ISBLANK(B39),"",B39)</f>
+        <f t="shared" ref="B6:B20" si="0">IF(ISBLANK(B25),"",B25)</f>
         <v/>
       </c>
-      <c r="C6" s="82" t="str">
-        <f t="shared" ref="C6:C34" si="1">IF(ISBLANK(B39),"",SUM(C39:H39))</f>
+      <c r="C6" s="83" t="str">
+        <f t="shared" ref="C6:C20" si="1">IF(ISBLANK(B25),"",SUM(C25:H25))</f>
         <v/>
       </c>
-      <c r="D6" s="82"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="23" t="str">
-        <f t="shared" ref="E6:E34" si="2">IF(ISBLANK(B39),"",SUM(C6:D6))</f>
+        <f t="shared" ref="E6:E20" si="2">IF(ISBLANK(B25),"",SUM(C6:D6))</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="58"/>
       <c r="B7" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C7" s="82" t="str">
+      <c r="C7" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D7" s="82"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+    <row r="8" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="58"/>
       <c r="B8" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C8" s="82" t="str">
+      <c r="C8" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D8" s="82"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+    <row r="9" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="58"/>
       <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C9" s="82" t="str">
+      <c r="C9" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D9" s="82"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+    <row r="10" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="58"/>
       <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C10" s="82" t="str">
+      <c r="C10" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D10" s="82"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+    <row r="11" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="58"/>
       <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C11" s="82" t="str">
+      <c r="C11" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D11" s="82"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+    <row r="12" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="58"/>
       <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C12" s="82" t="str">
+      <c r="C12" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D12" s="82"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+    <row r="13" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="58"/>
       <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="82" t="str">
+      <c r="C13" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D13" s="82"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+    <row r="14" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="58"/>
       <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C14" s="82" t="str">
+      <c r="C14" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D14" s="82"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+    <row r="15" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="58"/>
       <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C15" s="82" t="str">
+      <c r="C15" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D15" s="82"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+    <row r="16" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="58"/>
       <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C16" s="82" t="str">
+      <c r="C16" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+    <row r="17" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="58"/>
       <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="82" t="str">
+      <c r="C17" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="58"/>
       <c r="B18" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C18" s="82" t="str">
+      <c r="C18" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D18" s="82"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="58"/>
       <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C19" s="82" t="str">
+      <c r="C19" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D19" s="82"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="58"/>
       <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="82" t="str">
+      <c r="C20" s="83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D20" s="82"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C21" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C22" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C23" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C24" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C25" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C26" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C27" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="40"/>
+      <c r="B22" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+    </row>
+    <row r="23" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23"/>
+      <c r="B23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="16"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="16"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="16"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="57"/>
-      <c r="B28" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C28" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="57"/>
-      <c r="B29" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C29" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="57"/>
-      <c r="B30" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C30" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D30" s="82"/>
-      <c r="E30" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="57"/>
-      <c r="B31" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C31" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="57"/>
-      <c r="B32" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C32" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D32" s="82"/>
-      <c r="E32" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="16"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="57"/>
-      <c r="B33" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C33" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D33" s="82"/>
-      <c r="E33" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="57"/>
-      <c r="B34" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C34" s="82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D34" s="82"/>
-      <c r="E34" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="132" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-    </row>
-    <row r="37" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="57"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="57"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="57"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="57"/>
       <c r="B38" s="16"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -4853,7 +4759,8 @@
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
     </row>
-    <row r="39" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="57"/>
       <c r="B39" s="16"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -4862,135 +4769,298 @@
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
     </row>
-    <row r="40" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-    </row>
-    <row r="45" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="16"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-    </row>
-    <row r="47" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-    </row>
-    <row r="48" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="16"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-    </row>
-    <row r="49" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-    </row>
-    <row r="50" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-    </row>
-    <row r="51" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-    </row>
-    <row r="52" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-    </row>
-    <row r="53" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-    </row>
-    <row r="54" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
+    <row r="40" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+    </row>
+    <row r="42" spans="1:9" s="43" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="48"/>
+      <c r="C42" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="125"/>
+    </row>
+    <row r="43" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="32"/>
+      <c r="C43" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="23">
+        <f>'Land cover'!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="23">
+        <f>'Land cover'!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="23">
+        <f>'Land cover'!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="23">
+        <f>'Land cover'!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="23">
+        <f>'Land cover'!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="23">
+        <f>'Land cover'!H26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="127"/>
+      <c r="B45" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="23">
+        <f>'Land cover'!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="23">
+        <f>'Land cover'!D27</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="23">
+        <f>'Land cover'!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="23">
+        <f>'Land cover'!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="23">
+        <f>'Land cover'!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="23">
+        <f>'Land cover'!H27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="127"/>
+      <c r="B46" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="23">
+        <f>'Land cover'!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="23">
+        <f>'Land cover'!D28</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="23">
+        <f>'Land cover'!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="23">
+        <f>'Land cover'!F28</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="23">
+        <f>'Land cover'!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="23">
+        <f>'Land cover'!H28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="127"/>
+      <c r="B47" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="23">
+        <f>'Land cover'!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="23">
+        <f>'Land cover'!D29</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="23">
+        <f>'Land cover'!E29</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="23">
+        <f>'Land cover'!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="23">
+        <f>'Land cover'!G29</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="23">
+        <f>'Land cover'!H29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="127"/>
+      <c r="B48" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="23">
+        <f>'Land cover'!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="23">
+        <f>'Land cover'!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="23">
+        <f>'Land cover'!E30</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="23">
+        <f>'Land cover'!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="23">
+        <f>'Land cover'!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="23">
+        <f>'Land cover'!H30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="127"/>
+      <c r="B49" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="23">
+        <f>'Land cover'!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="23">
+        <f>'Land cover'!D31</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="23">
+        <f>'Land cover'!E31</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="23">
+        <f>'Land cover'!F31</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="23">
+        <f>'Land cover'!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="23">
+        <f>'Land cover'!H31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50"/>
+      <c r="B50" s="67"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="59"/>
+      <c r="B51" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="132"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="132"/>
+    </row>
+    <row r="52" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="70"/>
+      <c r="C52" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="125"/>
+    </row>
+    <row r="53" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="32"/>
+      <c r="B53" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="126" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>27</v>
+      </c>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -4998,8 +5068,11 @@
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
+    <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="127"/>
+      <c r="B55" s="69" t="s">
+        <v>5</v>
+      </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -5007,8 +5080,11 @@
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
+    <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="127"/>
+      <c r="B56" s="69" t="s">
+        <v>6</v>
+      </c>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
@@ -5016,8 +5092,11 @@
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
+    <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="127"/>
+      <c r="B57" s="69" t="s">
+        <v>7</v>
+      </c>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
@@ -5025,8 +5104,11 @@
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
+    <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="127"/>
+      <c r="B58" s="69" t="s">
+        <v>8</v>
+      </c>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
@@ -5034,54 +5116,76 @@
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
     </row>
-    <row r="59" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
+    <row r="59" spans="1:9" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="127"/>
+      <c r="B59" s="69" t="s">
+        <v>32</v>
+      </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
-    </row>
-    <row r="60" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="16"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-    </row>
-    <row r="61" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-    </row>
-    <row r="62" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-    </row>
-    <row r="63" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-    </row>
-    <row r="64" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" s="59" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="71"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+    </row>
+    <row r="61" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B61" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="128"/>
+      <c r="D61" s="128"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="128"/>
+      <c r="H61" s="128"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="32"/>
+      <c r="B62" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="131"/>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B64" s="16"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -5090,8 +5194,7 @@
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
     </row>
-    <row r="65" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B65" s="16"/>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
@@ -5100,8 +5203,7 @@
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
     </row>
-    <row r="66" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B66" s="16"/>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
@@ -5110,8 +5212,7 @@
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
     </row>
-    <row r="67" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B67" s="16"/>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
@@ -5120,748 +5221,178 @@
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
     </row>
-    <row r="69" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="136" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="136"/>
-      <c r="D69" s="136"/>
-      <c r="E69" s="136"/>
-      <c r="F69" s="136"/>
-      <c r="G69" s="136"/>
-      <c r="H69" s="136"/>
-    </row>
-    <row r="70" spans="1:8" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="47"/>
-      <c r="C70" s="127" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" s="128"/>
-      <c r="E70" s="128"/>
-      <c r="F70" s="128"/>
-      <c r="G70" s="128"/>
-      <c r="H70" s="129"/>
-    </row>
-    <row r="71" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="32"/>
-      <c r="C71" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="23">
-        <f>'Land cover'!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="23">
-        <f>'Land cover'!D26</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="23">
-        <f>'Land cover'!E26</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="23">
-        <f>'Land cover'!F26</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="23">
-        <f>'Land cover'!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="23">
-        <f>'Land cover'!H26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="131"/>
-      <c r="B73" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="23">
-        <f>'Land cover'!C27</f>
-        <v>0</v>
-      </c>
-      <c r="D73" s="23">
-        <f>'Land cover'!D27</f>
-        <v>0</v>
-      </c>
-      <c r="E73" s="23">
-        <f>'Land cover'!E27</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="23">
-        <f>'Land cover'!F27</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="23">
-        <f>'Land cover'!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="23">
-        <f>'Land cover'!H27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="131"/>
-      <c r="B74" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="23">
-        <f>'Land cover'!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="23">
-        <f>'Land cover'!D28</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="23">
-        <f>'Land cover'!E28</f>
-        <v>0</v>
-      </c>
-      <c r="F74" s="23">
-        <f>'Land cover'!F28</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="23">
-        <f>'Land cover'!G28</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="23">
-        <f>'Land cover'!H28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="131"/>
-      <c r="B75" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="23">
-        <f>'Land cover'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="23">
-        <f>'Land cover'!D29</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="23">
-        <f>'Land cover'!E29</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="23">
-        <f>'Land cover'!F29</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="23">
-        <f>'Land cover'!G29</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="23">
-        <f>'Land cover'!H29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="131"/>
-      <c r="B76" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="23">
-        <f>'Land cover'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="23">
-        <f>'Land cover'!D30</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="23">
-        <f>'Land cover'!E30</f>
-        <v>0</v>
-      </c>
-      <c r="F76" s="23">
-        <f>'Land cover'!F30</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="23">
-        <f>'Land cover'!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="23">
-        <f>'Land cover'!H30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="131"/>
-      <c r="B77" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="23">
-        <f>'Land cover'!C31</f>
-        <v>0</v>
-      </c>
-      <c r="D77" s="23">
-        <f>'Land cover'!D31</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="23">
-        <f>'Land cover'!E31</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="23">
-        <f>'Land cover'!F31</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="23">
-        <f>'Land cover'!G31</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="23">
-        <f>'Land cover'!H31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B68" s="16"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B69" s="16"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B70" s="16"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="16"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B72" s="16"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B73" s="16"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B74" s="16"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="16"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B76" s="16"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B77" s="16"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+    </row>
+    <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78"/>
-      <c r="B78" s="66"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-    </row>
-    <row r="79" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="58"/>
-      <c r="B79" s="136" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="136"/>
-      <c r="D79" s="136"/>
-      <c r="E79" s="136"/>
-      <c r="F79" s="136"/>
-      <c r="G79" s="136"/>
-      <c r="H79" s="136"/>
-    </row>
-    <row r="80" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="69"/>
-      <c r="C80" s="127" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" s="128"/>
-      <c r="E80" s="128"/>
-      <c r="F80" s="128"/>
-      <c r="G80" s="128"/>
-      <c r="H80" s="129"/>
-    </row>
-    <row r="81" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D81" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H81" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="130" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-    </row>
-    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="131"/>
-      <c r="B83" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-    </row>
-    <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="131"/>
-      <c r="B84" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-    </row>
-    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="131"/>
-      <c r="B85" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="23"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-    </row>
-    <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="131"/>
-      <c r="B86" s="68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-    </row>
-    <row r="87" spans="1:8" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="131"/>
-      <c r="B87" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-    </row>
-    <row r="88" spans="1:8" s="58" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="70"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-    </row>
-    <row r="89" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B89" s="132" t="s">
-        <v>42</v>
-      </c>
-      <c r="C89" s="132"/>
-      <c r="D89" s="132"/>
-      <c r="E89" s="132"/>
-      <c r="F89" s="132"/>
-      <c r="G89" s="132"/>
-      <c r="H89" s="132"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="133" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" s="134"/>
-      <c r="D90" s="134"/>
-      <c r="E90" s="134"/>
-      <c r="F90" s="134"/>
-      <c r="G90" s="134"/>
-      <c r="H90" s="135"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D91" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E91" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F91" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G91" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" s="37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="16"/>
-      <c r="C92" s="137"/>
-      <c r="D92" s="137"/>
-      <c r="E92" s="137"/>
-      <c r="F92" s="137"/>
-      <c r="G92" s="138"/>
-      <c r="H92" s="138"/>
-    </row>
-    <row r="93" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="16"/>
-      <c r="C93" s="137"/>
-      <c r="D93" s="137"/>
-      <c r="E93" s="137"/>
-      <c r="F93" s="137"/>
-      <c r="G93" s="138"/>
-      <c r="H93" s="138"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="16"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83"/>
-    </row>
-    <row r="95" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="16"/>
-      <c r="C95" s="83"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="83"/>
-      <c r="H95" s="83"/>
-    </row>
-    <row r="96" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="16"/>
-      <c r="C96" s="83"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="83"/>
-      <c r="H96" s="83"/>
-    </row>
-    <row r="97" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="16"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83"/>
-      <c r="H97" s="83"/>
-    </row>
-    <row r="98" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="16"/>
-      <c r="C98" s="83"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="83"/>
-      <c r="H98" s="83"/>
-    </row>
-    <row r="99" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="16"/>
-      <c r="C99" s="83"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="83"/>
-      <c r="H99" s="83"/>
-    </row>
-    <row r="100" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="16"/>
-      <c r="C100" s="83"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
-      <c r="H100" s="83"/>
-    </row>
-    <row r="101" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="16"/>
-      <c r="C101" s="83"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="83"/>
-      <c r="H101" s="83"/>
-    </row>
-    <row r="102" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="16"/>
-      <c r="C102" s="137"/>
-      <c r="D102" s="137"/>
-      <c r="E102" s="137"/>
-      <c r="F102" s="137"/>
-      <c r="G102" s="138"/>
-      <c r="H102" s="138"/>
-    </row>
-    <row r="103" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="16"/>
-      <c r="C103" s="137"/>
-      <c r="D103" s="137"/>
-      <c r="E103" s="137"/>
-      <c r="F103" s="137"/>
-      <c r="G103" s="138"/>
-      <c r="H103" s="138"/>
-    </row>
-    <row r="104" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="16"/>
-      <c r="C104" s="83"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="83"/>
-      <c r="H104" s="83"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="16"/>
-      <c r="C105" s="83"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="83"/>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="16"/>
-      <c r="C106" s="83"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="83"/>
-    </row>
-    <row r="107" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="16"/>
-      <c r="C107" s="83"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="83"/>
-      <c r="H107" s="83"/>
-    </row>
-    <row r="108" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="16"/>
-      <c r="C108" s="83"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="83"/>
-      <c r="H108" s="83"/>
-    </row>
-    <row r="109" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="16"/>
-      <c r="C109" s="83"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="83"/>
-      <c r="H109" s="83"/>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="16"/>
-      <c r="C110" s="83"/>
-      <c r="D110" s="83"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="83"/>
-      <c r="H110" s="83"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="16"/>
-      <c r="C111" s="83"/>
-      <c r="D111" s="83"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="83"/>
-      <c r="H111" s="83"/>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="16"/>
-      <c r="C112" s="83"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="83"/>
-      <c r="H112" s="83"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="16"/>
-      <c r="C113" s="83"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="83"/>
-      <c r="H113" s="83"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="16"/>
-      <c r="C114" s="83"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="83"/>
-      <c r="H114" s="83"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="16"/>
-      <c r="C115" s="83"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="83"/>
-      <c r="H115" s="83"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="16"/>
-      <c r="C116" s="83"/>
-      <c r="D116" s="83"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="83"/>
-      <c r="H116" s="83"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="16"/>
-      <c r="C117" s="83"/>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="83"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="16"/>
-      <c r="C118" s="83"/>
-      <c r="D118" s="83"/>
-      <c r="E118" s="83"/>
-      <c r="F118" s="83"/>
-      <c r="G118" s="83"/>
-      <c r="H118" s="83"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="16"/>
-      <c r="C119" s="83"/>
-      <c r="D119" s="83"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="83"/>
-      <c r="H119" s="83"/>
-    </row>
-    <row r="120" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="83"/>
-      <c r="D120" s="83"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="83"/>
-      <c r="G120" s="83"/>
-      <c r="H120" s="83"/>
-    </row>
-    <row r="121" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="83"/>
-      <c r="D121" s="83"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="83"/>
-      <c r="G121" s="83"/>
-      <c r="H121" s="83"/>
-    </row>
-    <row r="122" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122"/>
-      <c r="B122" s="66"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
-    </row>
-    <row r="123" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="66"/>
-    </row>
-    <row r="124" spans="1:8" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="90" t="s">
+      <c r="B78" s="16"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+    </row>
+    <row r="79" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80"/>
+      <c r="B80" s="67"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+    </row>
+    <row r="81" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="67"/>
+    </row>
+    <row r="82" spans="1:9" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B124" s="90"/>
-      <c r="C124" s="90"/>
-      <c r="D124" s="90"/>
-      <c r="E124" s="90"/>
-      <c r="F124" s="90"/>
-      <c r="G124" s="90"/>
-      <c r="H124" s="90"/>
-    </row>
-    <row r="125" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="66"/>
-      <c r="C125" s="64"/>
-      <c r="D125" s="64"/>
-      <c r="E125" s="64"/>
-      <c r="F125" s="64"/>
-      <c r="G125" s="64"/>
-      <c r="H125" s="64"/>
-    </row>
-    <row r="126" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="65" t="s">
+      <c r="B82" s="86"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="86"/>
+    </row>
+    <row r="83" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="67"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+    </row>
+    <row r="84" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B126" s="66"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="64"/>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A124:H124"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A54:A59"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="B90:H90"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="C52:H52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
